--- a/data/chap2/2.2.xlsx
+++ b/data/chap2/2.2.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D32801-5533-4261-82E6-1DD9EB39D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E888288-429E-4264-91DD-B0F5027D7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="91" r:id="rId1"/>
     <sheet name="案例2" sheetId="93" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -265,7 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,72 +402,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF009EDC"/>
       <color rgb="FF024F6C"/>
@@ -486,7 +434,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -681,26 +629,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53B3105-B5A2-4B30-BA8E-B5F419A113BE}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="30" customHeight="1">
+    <row r="1" spans="2:4" ht="30" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30" customHeight="1">
+    <row r="2" spans="2:4" ht="30" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,91 +657,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1">
+    <row r="3" spans="2:4" ht="30" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>937672571329528</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1">
+      <c r="D3" s="13" t="str">
+        <f>TRIM(C3)</f>
+        <v>937672571329528</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>625719904296256</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1">
+      <c r="D4" s="12" t="str">
+        <f t="shared" ref="D4:D13" si="0">TRIM(C4)</f>
+        <v>625719904296256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" customHeight="1">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>766296503359873</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1">
+      <c r="D5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>766296503359873</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>764534301793107</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1">
+      <c r="D6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>764534301793107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>759126410955654</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1">
+      <c r="D7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>759126410955654</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7">
         <v>875970679905612</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1">
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>875970679905612</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="5">
         <v>882397159609084</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1">
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>882397159609084</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>814072788569124</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" customHeight="1">
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>814072788569124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" customHeight="1">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>867687560227397</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1">
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>867687560227397</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" customHeight="1">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>306625683486059</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1">
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>306625683486059</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" customHeight="1">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5">
+        <v>705617782561883</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>705617782561883</v>
       </c>
     </row>
@@ -805,24 +798,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC4C32-9F58-4DEF-B87F-36A96D4CA1FF}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -830,137 +825,266 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="11">
         <v>20210915</v>
       </c>
+      <c r="B3" s="14" t="str">
+        <f>TEXT(DATE(LEFT(A3,4),MID(A3,5,2),RIGHT(A3,2)),"yyyy/mm/dd")</f>
+        <v>2021/09/15</v>
+      </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999">
+      <c r="D3" s="14" t="str">
+        <f>TEXT(DATE(LEFT(A3,4),MID(A3,5,2),RIGHT(A3,2)),"yyyy/mm/dd")</f>
+        <v>2021/09/15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="11">
         <v>20210916</v>
       </c>
+      <c r="B4" s="14" t="str">
+        <f>TEXT(DATE(LEFT(A4,4),MID(A4,5,2),RIGHT(A4,2)),"yyyy/mm/dd")</f>
+        <v>2021/09/16</v>
+      </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="D4" s="14" t="str">
+        <f t="shared" ref="D4:D18" si="0">TEXT(DATE(LEFT(A4,4),MID(A4,5,2),RIGHT(A4,2)),"yyyy/mm/dd")</f>
+        <v>2021/09/16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="11">
         <v>20210917</v>
       </c>
+      <c r="B5" s="14" t="str">
+        <f t="shared" ref="B5:B18" si="1">TEXT(DATE(LEFT(A5,4),MID(A5,5,2),RIGHT(A5,2)),"yyyy/mm/dd")</f>
+        <v>2021/09/17</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="11">
         <v>20210918</v>
       </c>
+      <c r="B6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/18</v>
+      </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999">
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="11">
         <v>20210919</v>
       </c>
+      <c r="B7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/19</v>
+      </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999">
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="11">
         <v>20210920</v>
       </c>
+      <c r="B8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/20</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999">
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="11">
         <v>20210921</v>
       </c>
+      <c r="B9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/21</v>
+      </c>
       <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999">
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
       <c r="A10" s="11">
         <v>20210922</v>
       </c>
+      <c r="B10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/22</v>
+      </c>
       <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.399999999999999">
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
       <c r="A11" s="11">
         <v>20210923</v>
       </c>
+      <c r="B11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/23</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.399999999999999">
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" s="11">
         <v>20210924</v>
       </c>
+      <c r="B12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/24</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.399999999999999">
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="11">
         <v>20210925</v>
       </c>
+      <c r="B13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/25</v>
+      </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.399999999999999">
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="11">
         <v>20210926</v>
       </c>
+      <c r="B14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/26</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.399999999999999">
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
       <c r="A15" s="11">
         <v>20210927</v>
       </c>
+      <c r="B15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/27</v>
+      </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999">
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="11">
         <v>20210928</v>
       </c>
+      <c r="B16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/28</v>
+      </c>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999">
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="11">
         <v>20210929</v>
       </c>
+      <c r="B17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/29</v>
+      </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999">
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="11">
         <v>20210930</v>
       </c>
+      <c r="B18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>2021/09/30</v>
+      </c>
       <c r="C18" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>2021/09/30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
